--- a/bot3/invoice.xlsx
+++ b/bot3/invoice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Code\pythonCode\BOT\bot3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC26E93D-AADD-4CBA-97C0-5DE13E3C8727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D140105-6D42-4839-92E2-157197BDF3A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="16536" windowHeight="9420" xr2:uid="{C89CB3BE-734E-4E40-BA09-E09DD4D4FD1B}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="16536" windowHeight="9420" xr2:uid="{C89CB3BE-734E-4E40-BA09-E09DD4D4FD1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="justify"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
